--- a/src/json/table1.xlsx
+++ b/src/json/table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-eav-test-2\nest-eav-test\src\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AD8701-989E-45F8-A70B-16BDBE00F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78504A32-DF31-47DC-BA00-6201B1D94C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Название</t>
   </si>
@@ -82,15 +82,6 @@
   </si>
   <si>
     <t>=SUM(F*:F*)</t>
-  </si>
-  <si>
-    <t>=SUM(G*:G*)</t>
-  </si>
-  <si>
-    <t>=SUM(H*:H*)</t>
-  </si>
-  <si>
-    <t>=SUM(I*:I*)</t>
   </si>
   <si>
     <t>SUMM</t>
@@ -188,11 +179,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -484,48 +473,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G1" sqref="G1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1">
-        <v>1</v>
-      </c>
+      <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -544,87 +519,52 @@
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>123</v>
-      </c>
-      <c r="I3" s="2">
-        <v>456</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/json/table1.xlsx
+++ b/src/json/table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-eav-test-2\nest-eav-test\src\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78504A32-DF31-47DC-BA00-6201B1D94C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD1EA8C-1276-4913-9942-A1A7008D0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,24 +57,6 @@
     <t>1_1</t>
   </si>
   <si>
-    <t>#0.*.1.C2</t>
-  </si>
-  <si>
-    <t>#0.*.2.C2</t>
-  </si>
-  <si>
-    <t>#0.*.3.C2</t>
-  </si>
-  <si>
-    <t>#0.*.6.C7</t>
-  </si>
-  <si>
-    <t>#0.*.5.C6</t>
-  </si>
-  <si>
-    <t>#0.*.4.C5</t>
-  </si>
-  <si>
     <t>=SUM(D*:D*)</t>
   </si>
   <si>
@@ -91,6 +73,24 @@
   </si>
   <si>
     <t>=SUM(C*:C*)</t>
+  </si>
+  <si>
+    <t>#0.*.col1.C2.1</t>
+  </si>
+  <si>
+    <t>#0.*.col2.C2.2</t>
+  </si>
+  <si>
+    <t>#0.*.col3.C2.3</t>
+  </si>
+  <si>
+    <t>#0.*.col4.C5.4</t>
+  </si>
+  <si>
+    <t>#0.*.col5.C6.5</t>
+  </si>
+  <si>
+    <t>#0.*.col6.C7.6</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,42 +522,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/json/table1.xlsx
+++ b/src/json/table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-eav-test-2\nest-eav-test\src\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD1EA8C-1276-4913-9942-A1A7008D0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D56381E-BB53-460B-9D95-98A944339966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,22 +75,22 @@
     <t>=SUM(C*:C*)</t>
   </si>
   <si>
-    <t>#0.*.col1.C2.1</t>
-  </si>
-  <si>
     <t>#0.*.col2.C2.2</t>
   </si>
   <si>
     <t>#0.*.col3.C2.3</t>
   </si>
   <si>
-    <t>#0.*.col4.C5.4</t>
-  </si>
-  <si>
-    <t>#0.*.col5.C6.5</t>
-  </si>
-  <si>
-    <t>#0.*.col6.C7.6</t>
+    <t>#0.*.col1.C5.1</t>
+  </si>
+  <si>
+    <t>#0.*.col4.C1.4</t>
+  </si>
+  <si>
+    <t>#0.*.col6.C6.6</t>
+  </si>
+  <si>
+    <t>#0.*.col5.C7.5</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,22 +522,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
